--- a/output/Speak_Up_Staff_Evals.xlsx
+++ b/output/Speak_Up_Staff_Evals.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Enumerators" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true" concurrentCalc="false"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
   <si>
     <t>Enumerator name</t>
   </si>
@@ -146,6 +146,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>Why not?</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -154,15 +157,12 @@
   <si>
     <t>Past Enumerators</t>
   </si>
-  <si>
-    <t>Why not?</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="428" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -173,25 +173,2714 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="142">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="439">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -219,106 +2908,4296 @@
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border/>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="125" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="151" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="17" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="18" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="19" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="21" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="22" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="23" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="24" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="25" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="26" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="27" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="28" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="29" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="30" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="31" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="32" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="33" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="34" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="35" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="36" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="37" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="38" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="39" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="40" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="41" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="42" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="43" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="44" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="45" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="46" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="47" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="48" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="49" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="50" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="51" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="52" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="53" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="54" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="55" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="56" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="57" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="58" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="59" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="60" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="61" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="62" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="63" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="64" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="65" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="66" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="67" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="68" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="69" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="70" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="71" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="72" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="73" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="74" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="75" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="76" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="77" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="78" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="79" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="80" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="81" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="82" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="83" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="84" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="85" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="86" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="87" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="88" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="89" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="90" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="91" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="92" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="93" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="94" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="95" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="96" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="97" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="98" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="99" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="100" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="101" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="102" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="103" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="104" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="105" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="106" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="107" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="108" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="109" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="110" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="111" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="112" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="113" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="114" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="115" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="116" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="117" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="118" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="119" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="120" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="121" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="122" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="123" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="124" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="125" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="126" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="127" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="128" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="129" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="413" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="414" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="130" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="131" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="132" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="133" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="134" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="135" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="136" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="137" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="138" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="139" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="140" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="141" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -593,703 +7472,682 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="157" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" style="158" customWidth="true"/>
+    <col min="3" max="3" width="18.7109375" style="159" customWidth="true"/>
+    <col min="4" max="4" width="17.7109375" style="160" customWidth="true"/>
+    <col min="5" max="5" width="35.7109375" style="161" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="156" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="163">
         <v>4.4285712242126465</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="165">
         <v>2.482450008392334</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="167">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="169" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="171">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="173">
         <v>3.9315879344940186</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="175">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="177" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="179">
         <v>4.8571429252624512</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="181">
         <v>3.5693037509918213</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="183">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="185" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="187">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="189">
         <v>3.9315879344940186</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="191">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="193" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="195">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="197">
         <v>1.3955973386764526</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="199">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="201" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="203">
         <v>4.2857141494750977</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="205">
         <v>2.1201658248901367</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="207">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="209" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="211">
         <v>4.8571429252624512</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="213">
         <v>3.5693037509918213</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="215">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="217" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="219">
         <v>4.2857141494750977</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="221">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="223">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="225" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="227">
         <v>4.7142858505249023</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="229">
         <v>3.7859055995941162</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="231">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="233" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="235">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="237">
         <v>4.3098421096801758</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="239">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="241" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="243">
         <v>4.1428570747375488</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="245">
         <v>2.7380318641662598</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="247">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="249" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="251">
         <v>3.7142856121063232</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="253">
         <v>1.9521265029907227</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="255">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="257" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="259">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="261">
         <v>4.3098421096801758</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="263">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="265" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="267">
         <v>3.7142856121063232</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="269">
         <v>1.9521265029907227</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="271">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="273" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="275">
         <v>3.8571429252624512</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="277">
         <v>2.2140951156616211</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="279">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="281" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="283">
         <v>4.1428570747375488</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="285">
         <v>2.7380318641662598</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="287">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="289" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="291">
         <v>4.7142858505249023</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="293">
         <v>2.8466792106628418</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="295">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="297" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="299">
         <v>4.8571429252624512</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="301">
         <v>3.2555360794067383</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="303">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="305" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="307">
         <v>4.5714287757873535</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="309">
         <v>2.4378221035003662</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="311">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="313" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="315">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="317">
         <v>0.80239272117614746</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="319">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="321" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="323">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="325">
         <v>3.6643931865692139</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="327">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="329" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="331">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="333">
         <v>3.6643931865692139</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="335">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="337" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="339">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="341">
         <v>3.6643931865692139</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="343">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="345" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="347">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="349">
         <v>3.6643931865692139</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="351">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="353" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="355">
         <v>4.2857141494750977</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="357">
         <v>0.74369525909423828</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="359">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="361" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="363">
         <v>4.8571429252624512</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="365">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="367">
         <v>5</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="369" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="371">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="373">
         <v>3.5640757083892822</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="375">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="377" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="379">
         <v>5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="381">
         <v>3.5640757083892822</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="383">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="385" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="387">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="389">
         <v>3.5640757083892822</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="391">
         <v>5</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="393" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="395">
         <v>4.7142858505249023</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="397">
         <v>2.4359242916107178</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="399">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="401" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="403">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="405">
         <v>3.5640757083892822</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="407">
         <v>5</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="409" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="411">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="413">
         <v>3.5640757083892822</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="415">
         <v>5</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="417" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="136"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+    </row>
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35" s="418" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="140"/>
+    </row>
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="419" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="419" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="419" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="419" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="419" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="421">
+        <v>5</v>
+      </c>
+      <c r="C37" s="423">
+        <v>5</v>
+      </c>
+      <c r="D37" s="425" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="146" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="427">
+        <v>2.2857143878936768</v>
+      </c>
+      <c r="C38" s="429">
+        <v>3</v>
+      </c>
+      <c r="D38" s="431" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="146" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>43</v>
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="433">
+        <v>4.8571429252624512</v>
+      </c>
+      <c r="C39" s="435">
+        <v>5</v>
+      </c>
+      <c r="D39" s="437" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="146" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="439">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C40" s="441">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" s="443" t="s">
         <v>37</v>
       </c>
-      <c r="E37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>2.2857143878936768</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="E40" s="146" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39">
-        <v>4.8571429252624512</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B33">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C33">
-    <cfRule type="aboveAverage" dxfId="6" priority="7" aboveAverage="0" stdDev="1"/>
-    <cfRule type="aboveAverage" dxfId="5" priority="6" stdDev="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D33">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C40">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B40">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>